--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
@@ -1863,21 +1863,21 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N12" t="n">
         <v>2.32</v>
@@ -1889,40 +1889,40 @@
         <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
         <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
         <v>45</v>
       </c>
       <c r="X12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="n">
         <v>55</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>120</v>
@@ -1931,22 +1931,22 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1996,16 +1996,16 @@
         <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -802,7 +802,7 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -823,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -850,7 +850,7 @@
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -924,22 +924,22 @@
         <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -966,13 +966,13 @@
         <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1046,10 +1046,10 @@
         <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -1171,7 +1171,7 @@
         <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1519,7 +1519,7 @@
         <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N9" t="n">
         <v>1.93</v>
@@ -1531,7 +1531,7 @@
         <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R9" t="n">
         <v>1.7</v>
@@ -1543,16 +1543,16 @@
         <v>7.7</v>
       </c>
       <c r="U9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V9" t="n">
         <v>9.25</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
@@ -1573,7 +1573,7 @@
         <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -1582,7 +1582,7 @@
         <v>11.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="n">
         <v>30</v>
@@ -1863,21 +1863,21 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N12" t="n">
         <v>2.32</v>
@@ -1889,40 +1889,40 @@
         <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T12" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W12" t="n">
+        <v>60</v>
+      </c>
+      <c r="X12" t="n">
         <v>45</v>
       </c>
-      <c r="X12" t="n">
-        <v>35</v>
-      </c>
       <c r="Y12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>120</v>
@@ -1931,22 +1931,22 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AF12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG12" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG12" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2102,36 +2102,80 @@
           <t>Iberia 1999</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.4</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>15</v>
+      </c>
+      <c r="U14" t="n">
+        <v>32</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>100</v>
+      </c>
+      <c r="X14" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2164,36 +2208,80 @@
           <t>Dila Gori</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.47</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>32</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>100</v>
+      </c>
+      <c r="X15" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2226,36 +2314,88 @@
           <t>Gagra</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2413,13 +2553,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2438,22 +2578,22 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V19" t="n">
         <v>8.25</v>
       </c>
       <c r="W19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X19" t="n">
         <v>14</v>
@@ -2462,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2477,13 +2617,13 @@
         <v>300</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH19" t="n">
         <v>50</v>
@@ -2560,7 +2700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KIWbQvUs</t>
+          <t>jVYRRymI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2570,119 +2710,115 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K21" t="n">
-        <v>17</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2.85</v>
       </c>
       <c r="N21" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="O21" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.5</v>
+        <v>2.47</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MaddamDM</t>
+          <t>ABDhDxYO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2692,119 +2828,111 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Fayha</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S22" t="n">
         <v>2.15</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>27</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z22" t="n">
         <v>12</v>
       </c>
-      <c r="W22" t="n">
-        <v>34</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH22" t="n">
         <v>29</v>
       </c>
-      <c r="Y22" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>19</v>
-      </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kz0u3VDc</t>
+          <t>zD5vXWOc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2814,119 +2942,111 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>23:05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.5</v>
-      </c>
+        <v>2.95</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.75</v>
-      </c>
+        <v>1.87</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE23" t="n">
         <v>10</v>
       </c>
-      <c r="AA23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jcukjbQr</t>
+          <t>KIWbQvUs</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2936,119 +3056,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K24" t="n">
+        <v>17</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3.5</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.18</v>
-      </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="U24" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="V24" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="W24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0CYHctY8</t>
+          <t>MaddamDM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3058,119 +3178,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Fayha</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE25" t="n">
         <v>6.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Wll9UDzq</t>
+          <t>Kz0u3VDc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3180,110 +3300,110 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T26" t="n">
+        <v>7</v>
+      </c>
+      <c r="U26" t="n">
+        <v>9</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9</v>
+      </c>
+      <c r="W26" t="n">
         <v>15</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>11</v>
-      </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>301</v>
+        <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -3292,7 +3412,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q7XBlZRE</t>
+          <t>jcukjbQr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3302,119 +3422,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="I27" t="n">
         <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W27" t="n">
+        <v>21</v>
+      </c>
+      <c r="X27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB27" t="n">
         <v>19</v>
       </c>
-      <c r="X27" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>13</v>
-      </c>
       <c r="AC27" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AD27" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="AF27" t="n">
         <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SYhhU4t0</t>
+          <t>0CYHctY8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3424,234 +3544,600 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M28" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K28" t="n">
-        <v>13</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>1.8</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P28" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>40</v>
+      </c>
+      <c r="V28" t="n">
+        <v>20</v>
+      </c>
+      <c r="W28" t="n">
+        <v>150</v>
+      </c>
+      <c r="X28" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH28" t="n">
         <v>10</v>
       </c>
-      <c r="U28" t="n">
-        <v>13</v>
-      </c>
-      <c r="V28" t="n">
-        <v>10</v>
-      </c>
-      <c r="W28" t="n">
-        <v>26</v>
-      </c>
-      <c r="X28" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AI28" t="n">
         <v>12</v>
       </c>
-      <c r="AA28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Wll9UDzq</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Oster</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>11</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q7XBlZRE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>19</v>
+      </c>
+      <c r="X30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SYhhU4t0</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K31" t="n">
+        <v>13</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10</v>
+      </c>
+      <c r="U31" t="n">
+        <v>13</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10</v>
+      </c>
+      <c r="W31" t="n">
+        <v>26</v>
+      </c>
+      <c r="X31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>MFf8QMuP</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>24/04/2025</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Varnamo</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>AIK</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G32" t="n">
         <v>3.25</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>3.3</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>2.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J32" t="n">
         <v>1.08</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K32" t="n">
         <v>8</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>1.5</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M32" t="n">
         <v>2.5</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N32" t="n">
         <v>2.5</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O32" t="n">
         <v>1.5</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P32" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q32" t="n">
         <v>2.25</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R32" t="n">
         <v>2.2</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S32" t="n">
         <v>1.62</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T32" t="n">
         <v>7</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U32" t="n">
         <v>15</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V32" t="n">
         <v>12</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W32" t="n">
         <v>41</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X32" t="n">
         <v>34</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y32" t="n">
         <v>41</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z32" t="n">
         <v>7</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA32" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB32" t="n">
         <v>21</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC32" t="n">
         <v>81</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AD32" t="n">
         <v>401</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE32" t="n">
         <v>6</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF32" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG32" t="n">
         <v>10</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AH32" t="n">
         <v>21</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AI32" t="n">
         <v>21</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AJ32" t="n">
         <v>41</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -802,7 +802,7 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -924,10 +924,10 @@
         <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -1046,10 +1046,10 @@
         <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -1171,7 +1171,7 @@
         <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1379,94 +1379,94 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.91</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.05</v>
-      </c>
       <c r="T8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AE8" t="n">
         <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1504,91 +1504,91 @@
         <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1762,10 +1762,10 @@
         <v>2.37</v>
       </c>
       <c r="N11" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1780,31 +1780,31 @@
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="U11" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="W11" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
         <v>110</v>
@@ -1813,22 +1813,22 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1863,16 +1863,20 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1.98</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
       <c r="L12" t="n">
         <v>1.45</v>
       </c>
@@ -1898,16 +1902,16 @@
         <v>1.6</v>
       </c>
       <c r="T12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V12" t="n">
         <v>14</v>
       </c>
       <c r="W12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X12" t="n">
         <v>45</v>
@@ -1934,16 +1938,16 @@
         <v>5.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
         <v>9.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
         <v>40</v>
@@ -2103,78 +2107,90 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.2</v>
+      </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.89</v>
+      </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="V14" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="W14" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X14" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AD14" t="n">
         <v>350</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.6</v>
+        <v>4.65</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.1</v>
+        <v>4.85</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2209,78 +2225,86 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.1</v>
+      </c>
       <c r="N15" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
       <c r="T15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U15" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="X15" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
         <v>6.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -2315,13 +2339,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>4.35</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2332,10 +2356,10 @@
         <v>3.8</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O16" t="n">
-        <v>2.07</v>
+        <v>1.72</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -2346,55 +2370,55 @@
         <v>2.15</v>
       </c>
       <c r="T16" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="U16" t="n">
-        <v>10.25</v>
+        <v>6.8</v>
       </c>
       <c r="V16" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="W16" t="n">
-        <v>17.5</v>
+        <v>11.25</v>
       </c>
       <c r="X16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>10</v>
-      </c>
       <c r="AC16" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AD16" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2428,36 +2452,96 @@
           <t>Fram</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" t="n">
+        <v>14</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>26</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2490,36 +2574,96 @@
           <t>Vikingur Reykjavik</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>24</v>
+      </c>
+      <c r="U18" t="n">
+        <v>45</v>
+      </c>
+      <c r="V18" t="n">
+        <v>19</v>
+      </c>
+      <c r="W18" t="n">
+        <v>120</v>
+      </c>
+      <c r="X18" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2553,13 +2697,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.45</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2578,40 +2722,40 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U19" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V19" t="n">
         <v>8.25</v>
       </c>
       <c r="W19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X19" t="n">
         <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB19" t="n">
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD19" t="n">
         <v>300</v>
@@ -2620,10 +2764,10 @@
         <v>12.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>50</v>
@@ -2666,36 +2810,84 @@
           <t>Grobina</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.48</v>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3108,7 +3300,7 @@
         <v>3.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
         <v>2.5</v>
@@ -3656,7 +3848,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wll9UDzq</t>
+          <t>M51Atzk1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3666,119 +3858,119 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K29" t="n">
+        <v>34</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.04</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>13</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
       <c r="N29" t="n">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="O29" t="n">
-        <v>2.08</v>
+        <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
         <v>12</v>
       </c>
-      <c r="Y29" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="n">
         <v>15</v>
       </c>
-      <c r="AF29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG29" t="n">
+      <c r="AH29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>17</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q7XBlZRE</t>
+          <t>Wll9UDzq</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3798,109 +3990,109 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
+        <v>13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W30" t="n">
         <v>11</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8</v>
-      </c>
-      <c r="U30" t="n">
-        <v>10</v>
-      </c>
-      <c r="V30" t="n">
-        <v>9</v>
-      </c>
-      <c r="W30" t="n">
-        <v>19</v>
-      </c>
       <c r="X30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB30" t="n">
         <v>17</v>
       </c>
-      <c r="Y30" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>13</v>
-      </c>
       <c r="AC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI30" t="n">
         <v>41</v>
       </c>
-      <c r="AD30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>41</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SYhhU4t0</t>
+          <t>Q7XBlZRE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3920,109 +4112,109 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S31" t="n">
         <v>2</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T31" t="n">
+        <v>8</v>
+      </c>
+      <c r="U31" t="n">
         <v>10</v>
       </c>
-      <c r="U31" t="n">
-        <v>13</v>
-      </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
         <v>26</v>
       </c>
-      <c r="AI31" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFf8QMuP</t>
+          <t>SYhhU4t0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4042,102 +4234,224 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.2</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K32" t="n">
-        <v>8</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V32" t="n">
+        <v>10</v>
+      </c>
+      <c r="W32" t="n">
+        <v>26</v>
+      </c>
+      <c r="X32" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z32" t="n">
         <v>12</v>
-      </c>
-      <c r="W32" t="n">
-        <v>41</v>
-      </c>
-      <c r="X32" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>7</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AE32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
         <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
         <v>21</v>
       </c>
       <c r="AJ32" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MFf8QMuP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7</v>
+      </c>
+      <c r="U33" t="n">
+        <v>15</v>
+      </c>
+      <c r="V33" t="n">
+        <v>12</v>
+      </c>
+      <c r="W33" t="n">
+        <v>41</v>
+      </c>
+      <c r="X33" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>41</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -1385,7 +1385,7 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1759,76 +1759,76 @@
         <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.32</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.27</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="U11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V11" t="n">
         <v>12.5</v>
       </c>
-      <c r="V11" t="n">
-        <v>10.75</v>
-      </c>
       <c r="W11" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="n">
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1994,10 +1994,10 @@
         <v>1.83</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2006,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2107,27 +2107,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="O14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
         <v>1.37</v>
@@ -2136,61 +2136,61 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="S14" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="T14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="U14" t="n">
         <v>40</v>
       </c>
       <c r="V14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14" t="n">
         <v>150</v>
       </c>
       <c r="X14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD14" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AG14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH14" t="n">
         <v>7.3</v>
       </c>
-      <c r="AH14" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AI14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
         <v>1.62</v>
@@ -2236,24 +2236,24 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T15" t="n">
         <v>11</v>
@@ -2268,16 +2268,16 @@
         <v>60</v>
       </c>
       <c r="X15" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="n">
         <v>37</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2289,19 +2289,19 @@
         <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH15" t="n">
         <v>10.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ15" t="n">
         <v>20</v>
@@ -2339,86 +2339,90 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="N16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.72</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.65</v>
+      </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="T16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V16" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="W16" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD16" t="n">
         <v>400</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2575,37 +2579,37 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M18" t="n">
         <v>4.9</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5.1</v>
-      </c>
       <c r="N18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O18" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="P18" t="n">
         <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="R18" t="n">
         <v>1.6</v>
@@ -2614,31 +2618,31 @@
         <v>2.18</v>
       </c>
       <c r="T18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U18" t="n">
+        <v>40</v>
+      </c>
+      <c r="V18" t="n">
+        <v>18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>100</v>
+      </c>
+      <c r="X18" t="n">
         <v>45</v>
-      </c>
-      <c r="V18" t="n">
-        <v>19</v>
-      </c>
-      <c r="W18" t="n">
-        <v>120</v>
-      </c>
-      <c r="X18" t="n">
-        <v>50</v>
       </c>
       <c r="Y18" t="n">
         <v>40</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
         <v>50</v>
@@ -2647,7 +2651,7 @@
         <v>300</v>
       </c>
       <c r="AE18" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF18" t="n">
         <v>8.75</v>
@@ -2656,10 +2660,10 @@
         <v>8.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>10.25</v>
       </c>
       <c r="AJ18" t="n">
         <v>19</v>
@@ -2697,13 +2701,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2711,7 +2715,7 @@
         <v>1.21</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N19" t="n">
         <v>1.65</v>
@@ -2725,25 +2729,25 @@
         <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X19" t="n">
         <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
@@ -2761,19 +2765,19 @@
         <v>300</v>
       </c>
       <c r="AE19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
         <v>30</v>
@@ -2811,82 +2815,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>9.800000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="O20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T20" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="V20" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="Y20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB20" t="n">
         <v>23</v>
       </c>
-      <c r="Z20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD20" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AH20" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AI20" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -2921,21 +2925,21 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N21" t="n">
         <v>1.93</v>
@@ -2950,25 +2954,25 @@
         <v>2.47</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T21" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U21" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V21" t="n">
         <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
         <v>30</v>
@@ -2977,31 +2981,31 @@
         <v>9.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH21" t="n">
         <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
         <v>35</v>
@@ -3267,13 +3271,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
@@ -3309,7 +3313,7 @@
         <v>15</v>
       </c>
       <c r="U24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V24" t="n">
         <v>12</v>
@@ -3389,43 +3393,43 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
         <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
         <v>8.5</v>
@@ -3440,31 +3444,31 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>9.5</v>
@@ -3473,7 +3477,7 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3538,7 +3542,7 @@
         <v>1.83</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q26" t="n">
         <v>2.75</v>
@@ -3898,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="N29" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="O29" t="n">
         <v>5</v>
@@ -4020,10 +4024,10 @@
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4243,19 +4247,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4264,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O32" t="n">
         <v>2</v>
@@ -4282,16 +4286,16 @@
         <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U32" t="n">
         <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4324,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
         <v>21</v>
@@ -4389,7 +4393,7 @@
         <v>2.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -790,7 +790,7 @@
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O3" t="n">
         <v>2.5</v>
@@ -811,10 +811,10 @@
         <v>17</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
@@ -823,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -850,10 +850,10 @@
         <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="O6" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1385,7 +1385,7 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1400,10 +1400,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1510,10 +1510,10 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1522,10 +1522,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O9" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1632,10 +1632,10 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1644,10 +1644,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="O10" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1692,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1759,13 +1759,13 @@
         <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N11" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
         <v>1.47</v>
@@ -1774,28 +1774,28 @@
         <v>2.32</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="U11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="V11" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="W11" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z11" t="n">
         <v>7</v>
@@ -1807,25 +1807,25 @@
         <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD11" t="n">
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
@@ -1985,82 +1985,82 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X13" t="n">
         <v>41</v>
       </c>
       <c r="Y13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
         <v>1.37</v>
@@ -2118,16 +2118,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P14" t="n">
         <v>1.37</v>
@@ -2136,61 +2136,61 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="S14" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="T14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U14" t="n">
         <v>40</v>
       </c>
       <c r="V14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W14" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X14" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="n">
         <v>80</v>
       </c>
-      <c r="Y14" t="n">
-        <v>70</v>
-      </c>
       <c r="Z14" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD14" t="n">
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AG14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH14" t="n">
         <v>7</v>
       </c>
-      <c r="AH14" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2362,16 +2362,16 @@
         <v>1.72</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
         <v>5.8</v>
@@ -2828,18 +2828,18 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="O20" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="S20" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="T20" t="n">
         <v>7.6</v>
@@ -3049,7 +3049,7 @@
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3074,10 +3074,10 @@
         <v>2.15</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V22" t="n">
         <v>9.25</v>
@@ -3086,7 +3086,7 @@
         <v>27</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>24</v>
@@ -3107,10 +3107,10 @@
         <v>300</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>9.75</v>
@@ -3122,7 +3122,7 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="W24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -3402,13 +3402,13 @@
         <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
         <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -3420,10 +3420,10 @@
         <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
         <v>1.91</v>
@@ -3524,25 +3524,25 @@
         <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
         <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" t="n">
         <v>2.75</v>
@@ -3889,20 +3889,16 @@
       <c r="I29" t="n">
         <v>2.9</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K29" t="n">
-        <v>34</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M29" t="n">
         <v>13</v>
       </c>
       <c r="N29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="O29" t="n">
         <v>5</v>
@@ -4024,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O30" t="n">
         <v>2.05</v>
@@ -4268,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O32" t="n">
         <v>2</v>
@@ -4393,7 +4389,7 @@
         <v>2.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -656,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
         <v>2.1</v>
@@ -686,10 +686,10 @@
         <v>1.8</v>
       </c>
       <c r="T2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U2" t="n">
         <v>7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6.5</v>
       </c>
       <c r="V2" t="n">
         <v>8.5</v>
@@ -710,22 +710,22 @@
         <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>81</v>
@@ -790,7 +790,7 @@
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
         <v>2.5</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -963,13 +963,13 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1388,22 +1388,22 @@
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
         <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1510,22 +1510,22 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1656,13 +1656,13 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
         <v>9.5</v>
@@ -1680,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1692,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -2107,87 +2107,87 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="N14" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="O14" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="U14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD14" t="n">
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AG14" t="n">
         <v>7.3</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
@@ -2239,7 +2239,7 @@
         <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N15" t="n">
         <v>1.8</v>
@@ -2250,10 +2250,10 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T15" t="n">
         <v>11</v>
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2475,7 +2475,7 @@
         <v>1.19</v>
       </c>
       <c r="M17" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="N17" t="n">
         <v>1.6</v>
@@ -2496,19 +2496,19 @@
         <v>2.35</v>
       </c>
       <c r="T17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U17" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
         <v>23</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2529,19 +2529,19 @@
         <v>250</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>22</v>
@@ -2815,82 +2815,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="O20" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="S20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="U20" t="n">
         <v>5.7</v>
       </c>
       <c r="V20" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="W20" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
         <v>8.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE20" t="n">
         <v>23</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AF20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI20" t="n">
         <v>90</v>
       </c>
-      <c r="AD20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3049,7 +3049,7 @@
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3074,22 +3074,22 @@
         <v>2.15</v>
       </c>
       <c r="T22" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z22" t="n">
         <v>12</v>
@@ -3107,22 +3107,22 @@
         <v>300</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
         <v>9.75</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -3163,7 +3163,7 @@
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3188,10 +3188,10 @@
         <v>2.07</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.75</v>
@@ -3200,19 +3200,19 @@
         <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
         <v>6.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>50</v>
@@ -3221,22 +3221,22 @@
         <v>350</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -3292,10 +3292,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P24" t="n">
         <v>1.29</v>
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="W24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -3334,7 +3334,7 @@
         <v>7.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>34</v>
@@ -3358,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -3402,13 +3402,13 @@
         <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
         <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -3524,13 +3524,13 @@
         <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
         <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
         <v>3.4</v>
@@ -3889,10 +3889,14 @@
       <c r="I29" t="n">
         <v>2.9</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K29" t="n">
+        <v>34</v>
+      </c>
       <c r="L29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M29" t="n">
         <v>13</v>
@@ -3999,10 +4003,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I30" t="n">
         <v>5.5</v>
@@ -4014,31 +4018,31 @@
         <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.8</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="n">
         <v>7.5</v>
@@ -4050,25 +4054,25 @@
         <v>11</v>
       </c>
       <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="n">
         <v>12</v>
       </c>
-      <c r="Y30" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>13</v>
-      </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -4121,13 +4125,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4142,10 +4146,10 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4178,7 +4182,7 @@
         <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4202,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -656,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
@@ -790,10 +790,10 @@
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -942,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>34</v>
@@ -972,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1034,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1144,34 +1144,34 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1189,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>9</v>
@@ -1388,22 +1388,22 @@
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1510,13 +1510,13 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>3.5</v>
@@ -1632,13 +1632,13 @@
         <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -2136,10 +2136,10 @@
         <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T14" t="n">
         <v>12.5</v>
@@ -2339,27 +2339,27 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>4.55</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O16" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
         <v>1.41</v>
@@ -2371,58 +2371,58 @@
         <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T16" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U16" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="V16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W16" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
         <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>60</v>
       </c>
-      <c r="AD16" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>45</v>
-      </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2496,19 +2496,19 @@
         <v>2.35</v>
       </c>
       <c r="T17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="U17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
         <v>23</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2529,22 +2529,22 @@
         <v>250</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2701,86 +2701,86 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
         <v>1.65</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U19" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB19" t="n">
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="n">
         <v>300</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2815,13 +2815,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2842,16 +2842,16 @@
         <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U20" t="n">
         <v>5.7</v>
       </c>
       <c r="V20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
         <v>8.75</v>
@@ -2860,10 +2860,10 @@
         <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
         <v>19.5</v>
@@ -2875,16 +2875,16 @@
         <v>500</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI20" t="n">
         <v>90</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -2960,13 +2960,13 @@
         <v>1.88</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U21" t="n">
         <v>11.75</v>
       </c>
       <c r="V21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
         <v>25</v>
@@ -2993,10 +2993,10 @@
         <v>500</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
         <v>10.25</v>
@@ -3008,7 +3008,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3271,19 +3271,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L24" t="n">
         <v>1.17</v>
@@ -3292,10 +3292,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P24" t="n">
         <v>1.29</v>
@@ -3313,7 +3313,7 @@
         <v>15</v>
       </c>
       <c r="U24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V24" t="n">
         <v>12</v>
@@ -3322,10 +3322,10 @@
         <v>34</v>
       </c>
       <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
         <v>23</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>26</v>
       </c>
       <c r="Z24" t="n">
         <v>17</v>
@@ -3343,22 +3343,22 @@
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -4259,7 +4259,7 @@
         <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4369,19 +4369,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
         <v>1.5</v>
@@ -4408,13 +4408,13 @@
         <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U33" t="n">
         <v>15</v>
       </c>
       <c r="V33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
         <v>41</v>
@@ -4444,13 +4444,13 @@
         <v>6</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -790,10 +790,10 @@
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -930,7 +930,7 @@
         <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>13</v>
@@ -945,7 +945,7 @@
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
         <v>8</v>
@@ -966,7 +966,7 @@
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -1144,22 +1144,22 @@
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1510,13 +1510,13 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>3.5</v>
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1656,13 +1656,13 @@
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
         <v>9.5</v>
@@ -1671,7 +1671,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1994,22 +1994,22 @@
         <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2118,10 +2118,10 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="N14" t="n">
         <v>2.02</v>
@@ -2136,10 +2136,10 @@
         <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T14" t="n">
         <v>12.5</v>
@@ -2342,18 +2342,18 @@
         <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N16" t="n">
         <v>1.83</v>
@@ -2368,22 +2368,22 @@
         <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S16" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U16" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="V16" t="n">
         <v>7</v>
       </c>
       <c r="W16" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -2401,25 +2401,25 @@
         <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD16" t="n">
         <v>450</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="n">
         <v>40</v>
@@ -2701,18 +2701,18 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
         <v>3.5</v>
@@ -2721,30 +2721,30 @@
         <v>1.65</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T19" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U19" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>22</v>
@@ -2753,10 +2753,10 @@
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>45</v>
@@ -2765,22 +2765,22 @@
         <v>300</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -2925,66 +2925,66 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="N21" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="R21" t="n">
         <v>1.72</v>
       </c>
       <c r="S21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T21" t="n">
         <v>7.8</v>
       </c>
       <c r="U21" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V21" t="n">
         <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
         <v>65</v>
@@ -2999,10 +2999,10 @@
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI21" t="n">
         <v>24</v>
@@ -3049,7 +3049,7 @@
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3206,7 +3206,7 @@
         <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA23" t="n">
         <v>6.4</v>
@@ -3283,7 +3283,7 @@
         <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
         <v>1.17</v>
@@ -3304,7 +3304,7 @@
         <v>3.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
         <v>2.5</v>
@@ -3539,7 +3539,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3697,7 +3697,7 @@
         <v>5.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB27" t="n">
         <v>19</v>
@@ -4378,10 +4378,10 @@
         <v>2.15</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -790,10 +790,10 @@
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -933,13 +933,13 @@
         <v>8.5</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1510,13 +1510,13 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>3.5</v>
@@ -1632,13 +1632,13 @@
         <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.05</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1768,31 +1768,31 @@
         <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V11" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
         <v>50</v>
@@ -1801,10 +1801,10 @@
         <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
         <v>110</v>
@@ -1813,22 +1813,22 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1994,22 +1994,22 @@
         <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
         <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2353,7 +2353,7 @@
         <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N16" t="n">
         <v>1.83</v>
@@ -2368,10 +2368,10 @@
         <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T16" t="n">
         <v>5.7</v>
@@ -2701,13 +2701,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2738,7 +2738,7 @@
         <v>12.5</v>
       </c>
       <c r="V19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
         <v>23</v>
@@ -2765,10 +2765,10 @@
         <v>300</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>10.25</v>
@@ -2925,90 +2925,90 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N21" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>5.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>35</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -3304,7 +3304,7 @@
         <v>3.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
         <v>2.5</v>
@@ -3408,16 +3408,16 @@
         <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3539,7 +3539,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3643,7 +3643,7 @@
         <v>2.87</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J27" t="n">
         <v>1.12</v>
@@ -3670,16 +3670,16 @@
         <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S27" t="n">
         <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
         <v>9.75</v>
@@ -3700,7 +3700,7 @@
         <v>5.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC27" t="n">
         <v>120</v>
@@ -3709,10 +3709,10 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG27" t="n">
         <v>13</v>
@@ -3884,10 +3884,10 @@
         <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
         <v>1.01</v>
@@ -3896,34 +3896,34 @@
         <v>34</v>
       </c>
       <c r="L29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Q29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V29" t="n">
         <v>12</v>
@@ -3941,13 +3941,13 @@
         <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB29" t="n">
         <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
         <v>41</v>
@@ -4247,19 +4247,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4286,16 +4286,16 @@
         <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
         <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4328,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
         <v>21</v>
@@ -4369,13 +4369,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
         <v>1.08</v>
@@ -4402,10 +4402,10 @@
         <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T33" t="n">
         <v>7.5</v>
@@ -4414,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W33" t="n">
         <v>41</v>
@@ -4450,7 +4450,7 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-24.xlsx
@@ -790,10 +790,10 @@
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -1635,7 +1635,7 @@
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1692,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1707,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1774,25 +1774,25 @@
         <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V11" t="n">
         <v>11</v>
       </c>
       <c r="W11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
         <v>50</v>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
         <v>110</v>
@@ -1866,10 +1866,10 @@
         <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
         <v>1.09</v>
@@ -1911,7 +1911,7 @@
         <v>14</v>
       </c>
       <c r="W12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X12" t="n">
         <v>45</v>
@@ -1923,7 +1923,7 @@
         <v>6.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB12" t="n">
         <v>20</v>
@@ -1938,13 +1938,13 @@
         <v>5.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG12" t="n">
         <v>9.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2353,7 +2353,7 @@
         <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N16" t="n">
         <v>1.83</v>
@@ -2368,10 +2368,10 @@
         <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T16" t="n">
         <v>5.7</v>
@@ -2460,7 +2460,7 @@
         <v>2.47</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
         <v>2.45</v>
@@ -2472,16 +2472,16 @@
         <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="N17" t="n">
         <v>1.6</v>
       </c>
       <c r="O17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P17" t="n">
         <v>1.31</v>
@@ -2493,7 +2493,7 @@
         <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T17" t="n">
         <v>11.25</v>
@@ -2502,7 +2502,7 @@
         <v>14.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
         <v>27</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2529,7 +2529,7 @@
         <v>250</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -2541,7 +2541,7 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>23</v>
@@ -2836,10 +2836,10 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T20" t="n">
         <v>7.3</v>
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>1.01</v>
@@ -3899,40 +3899,40 @@
         <v>1.03</v>
       </c>
       <c r="M29" t="n">
+        <v>17</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>34</v>
+      </c>
+      <c r="U29" t="n">
+        <v>26</v>
+      </c>
+      <c r="V29" t="n">
+        <v>13</v>
+      </c>
+      <c r="W29" t="n">
+        <v>29</v>
+      </c>
+      <c r="X29" t="n">
         <v>15</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="O29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>29</v>
-      </c>
-      <c r="U29" t="n">
-        <v>23</v>
-      </c>
-      <c r="V29" t="n">
-        <v>12</v>
-      </c>
-      <c r="W29" t="n">
-        <v>23</v>
-      </c>
-      <c r="X29" t="n">
-        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -3941,10 +3941,10 @@
         <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>19</v>
@@ -3953,7 +3953,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="n">
         <v>34</v>
@@ -3968,7 +3968,7 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -4024,10 +4024,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4369,19 +4369,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
         <v>1.5</v>
@@ -4408,7 +4408,7 @@
         <v>1.67</v>
       </c>
       <c r="T33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U33" t="n">
         <v>15</v>
@@ -4417,10 +4417,10 @@
         <v>12</v>
       </c>
       <c r="W33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y33" t="n">
         <v>41</v>
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
@@ -4453,7 +4453,7 @@
         <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
